--- a/ketugotest.xlsx
+++ b/ketugotest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0B3DDA-2B07-4679-A659-16D0622FF65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD685D3A-4623-49EA-B888-0A3DF61DFE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="184">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -214,38 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.アカウント登録画面の「確認する」を押す。</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント登録確認画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>赤文字で、「エラーが発生したためアカウント登録できません。」の表示</t>
     <rPh sb="0" eb="1">
       <t>アカ</t>
@@ -1653,6 +1621,1793 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の各項目に正しい形式で値を入れる</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アカウント登録画面の「確認する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（姓）」にひらがなで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（姓）」に漢字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（姓）」にひらがなで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.他の項目も正しいで形式で入力する</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.「確認する」を押し、アカウント登録確認画面に遷移する</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（姓）」に漢字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（姓）」に英語や数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.「確認する」を押す。</t>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（姓）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページは遷移せず「指定されている形式で入力してください。」の表示</t>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（名）」にひらがなで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（名）」にひらがなで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（名）」に漢字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（名）」に漢字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「名前（名）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「名前（名）」に英語や数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.他の項目は正しいで形式で入力する</t>
+    <rPh sb="2" eb="3">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カナ（姓）」にカタカナで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「カナ（姓）」にカタカナで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カナ（姓）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="4" eb="5">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「カナ（姓）」に漢字やひらがななどで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カナ（名）」にカタカナで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「カナ（名）」にカタカナで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カナ（名）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「カナ（名）」に漢字やひらがななどで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「パスワード」に半角英字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」に半角英字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」に半角数字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「パスワード」に半角数字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「パスワード」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="8" eb="10">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「パスワード」に全角英数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」に半角英字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」に半角数字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」に半角ハイフンで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」に半角記号で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="10" eb="12">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「メールアドレス」に半角英字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>エイジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「メールアドレス」に半角数字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「メールアドレス」に半角記号を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「メールアドレス」に半角ハイフンを入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「メールアドレス」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「メールアドレス」に全角英数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「郵便番号」に半角数字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="5">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「郵便番号」に半角数字で入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「郵便番号」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="1" eb="5">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「郵便番号」に全角数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」にひらがなで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」に漢字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」に数字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」にカタカナで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」に記号（ハイフンとスペース）で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」にひらがなを入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」に漢字を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」に数字を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」にカタカナを入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」に記号を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（市区町村）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（市区町村）」に全角英数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウソン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」にひらがなで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」に漢字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」に数字で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」にカタカナで入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」に記号（ハイフンとスペース）で入力した際にアカウント登録確認画面に遷移するか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「住所（番地）」に指定されていない形式で入力した際、ページは遷移せず「指定されている形式で入力してください。」と表示されるか</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」にひらがなを入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」に数字を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」に記号を入れ入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」に全角英数字などで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」に漢字をで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録画面の「住所（番地）」にカタカナで入力</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1767,7 +3522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1775,6 +3530,9 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1940,9 +3698,6 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2159,7 +3914,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I125" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -2176,43 +3931,43 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A40:I44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A136:I140" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="0" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{DF451A8A-0967-4F94-818E-D3570FB2B59A}" name="列3" headerRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{AA73A768-6C08-4C8A-8A41-080408F0AB37}" name="確認内容" headerRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{6141D254-140D-4DE7-8906-7D69CA8C3D85}" name="操作手順" headerRowDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{6AF9EC68-EC56-4467-9A36-1F8EF68C1869}" name="期待値" headerRowDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{5A6CDAFA-28ED-474C-9188-6640A9DE1114}" name="実施日" headerRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{F8526597-746C-445B-B540-B42B399D4251}" name="実施結果" headerRowDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{AE55A6DD-6261-4C39-A3F5-649816E20F04}" name="備考" headerRowDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A41:I44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A53:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9E87206C-E088-455F-A9D6-FC736686CFC6}" name="列3" headerRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{868A7FB1-E2B0-4860-AF74-B6163A844F93}" name="列1" headerRowDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C35781CE-B2D7-4097-BE07-16E1976D1DE1}" name="操作手順" headerRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2E97C731-1BA3-4A6D-A8AA-DA271D4F1BF4}" name="期待値" headerRowDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{423894F2-CA51-4E9F-99DB-29AB37123554}" name="実施日" headerRowDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{D014F511-BB62-4DA8-872D-4F030E047EB4}" name="実施結果" headerRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{436DD4A8-3790-4820-BE15-69394B675ADC}" name="備考" headerRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I42" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I42" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
     <tableColumn id="3" xr3:uid="{582A2686-E28B-490A-8FA1-112B4B468D7E}" name="列3"/>
     <tableColumn id="4" xr3:uid="{7FF85854-A416-4892-9D1F-7E6D0675F464}" name="確認内容"/>
@@ -2543,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="D79" zoomScale="79" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2564,37 +4319,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>45791</v>
@@ -2635,19 +4390,21 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2659,7 +4416,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2668,20 +4425,20 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
@@ -2701,33 +4458,33 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>2</v>
+      <c r="A12" s="8">
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2735,67 +4492,59 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="8"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2803,33 +4552,33 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2837,67 +4586,59 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="8">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2905,33 +4646,33 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>8</v>
+      <c r="A24" s="8">
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2939,67 +4680,59 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
-        <v>9</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="8">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>10</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -3007,33 +4740,33 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>11</v>
+      <c r="A30" s="8">
+        <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3041,46 +4774,46 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="8">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3088,38 +4821,1566 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A35" s="8"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="A36" s="8">
+        <v>11</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="8"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="8"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="8">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="8"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="8"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="8">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="8"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="8"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="8">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="8"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="8"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="8">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="8"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="8"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="8">
+        <v>16</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="8"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="8"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="8">
+        <v>17</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="8"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="8"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="8">
+        <v>18</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="8"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="8"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="8">
+        <v>19</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="8"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="8"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="8">
+        <v>20</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="8"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="8"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="8">
+        <v>21</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="8"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="8"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="8">
+        <v>22</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="8"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="8"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="8">
+        <v>23</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="8"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="8"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="8">
+        <v>24</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="8"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="8"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="8">
+        <v>25</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="8"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="8"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="8">
+        <v>26</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="8"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="8"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="8">
+        <v>27</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="8"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="8"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="8">
+        <v>28</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="8"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="8"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="8">
+        <v>29</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="8"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="8"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="8">
+        <v>30</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="8"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="8">
+        <v>31</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="8"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="8"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="8">
+        <v>32</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="8"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="8"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="8">
+        <v>33</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="8"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="8"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="8">
+        <v>34</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="8"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="8"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2">
+        <v>35</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="2">
+        <v>36</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="2">
+        <v>37</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="2">
+        <v>38</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="2">
+        <v>39</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G116" s="4"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="2">
+        <v>40</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" s="4"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="2">
+        <v>41</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G120" s="4"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="2">
+        <v>42</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G122" s="4"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="2">
+        <v>43</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G124" s="4"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="2">
+        <v>44</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G126" s="4"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="2">
+        <v>45</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G128" s="4"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="2">
+        <v>46</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3136,10 +6397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3157,37 +6418,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>45791</v>
@@ -3234,13 +6495,13 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
@@ -3252,64 +6513,56 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -3320,7 +6573,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3329,20 +6582,20 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>113</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="2"/>
@@ -3354,69 +6607,59 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="4"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
@@ -3424,7 +6667,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3433,20 +6676,20 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>113</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="2"/>
@@ -3458,64 +6701,58 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="4"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3526,7 +6763,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3535,20 +6772,20 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
@@ -3560,64 +6797,56 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="A29" s="2">
+        <v>8</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="4"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3628,7 +6857,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3637,43 +6866,37 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2"/>
@@ -3681,35 +6904,33 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="4"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2"/>
@@ -3717,12 +6938,238 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2">
+        <v>13</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3740,7 +7187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="79" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="79" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3759,37 +7206,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
         <v>45791</v>
@@ -3834,259 +7281,228 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8"/>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8"/>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8"/>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8"/>
       <c r="E16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="D29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
         <v>107</v>
       </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="8"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
@@ -4097,13 +7513,13 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="2"/>
@@ -4115,7 +7531,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>

--- a/ketugotest.xlsx
+++ b/ketugotest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD685D3A-4623-49EA-B888-0A3DF61DFE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA620FE-FD79-442D-AEAF-141BD81A9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="194">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -3408,6 +3408,109 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じメールアドレスで登録できないようになっているか</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アカウント登録でメールアドレスを一度登録する</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.もう一度同じメールアドレスをアカウント登録画面で入力する</t>
+    <rPh sb="4" eb="6">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アカウント登録確認画面の「登録する」を押す。</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じメールアドレスは登録できないようになっている</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイフンやアットマーク以外での登録ができる</t>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角スペースで登録ができない</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3497,7 +3600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3520,9 +3623,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3948,7 +4048,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A53:I56" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DCB05C3C-C900-4C09-910F-75962D1D20CC}" name="テーブル35" displayName="テーブル35" ref="A56:I59" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{21F6D0F2-89C0-4CF9-A296-67198B77C610}" name="項目番号" headerRowDxfId="11" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{AEB5C6B5-993D-4495-8A63-42334E9EB635}" name="大項目" headerRowDxfId="9"/>
@@ -3965,7 +4065,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I42" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D669CB1E-E865-4AB1-9272-00AB1FE1DA44}" name="テーブル37" displayName="テーブル37" ref="A8:I39" totalsRowShown="0" headerRowDxfId="1">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{59834207-48CE-4C48-8124-A0C1B0263288}" name="項目番号" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{58AAC923-C89D-4FA4-8219-AE907CFFC2DC}" name="大項目"/>
@@ -4300,8 +4400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4406,8 +4506,12 @@
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4440,8 +4544,12 @@
       <c r="F10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -4458,7 +4566,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -4474,12 +4582,16 @@
       <c r="F12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4492,7 +4604,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -4505,7 +4617,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -4521,12 +4633,16 @@
       <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -4539,7 +4655,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -4552,7 +4668,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8">
+      <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -4568,12 +4684,16 @@
       <c r="F18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -4586,7 +4706,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4599,7 +4719,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8">
+      <c r="A21" s="2">
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -4615,12 +4735,16 @@
       <c r="F21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -4633,7 +4757,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4646,7 +4770,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8">
+      <c r="A24" s="2">
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -4662,12 +4786,16 @@
       <c r="F24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4680,7 +4808,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4693,7 +4821,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="8">
+      <c r="A27" s="2">
         <v>8</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -4709,12 +4837,16 @@
       <c r="F27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="8"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4727,7 +4859,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="8"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4740,7 +4872,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="8">
+      <c r="A30" s="2">
         <v>9</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -4756,12 +4888,16 @@
       <c r="F30" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="8"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4774,7 +4910,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="8"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4787,7 +4923,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="8">
+      <c r="A33" s="2">
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -4803,12 +4939,16 @@
       <c r="F33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="8"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4821,7 +4961,7 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="8"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4834,7 +4974,7 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="8">
+      <c r="A36" s="2">
         <v>11</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -4850,12 +4990,16 @@
       <c r="F36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="8"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -4868,7 +5012,7 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="8"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -4881,7 +5025,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="8">
+      <c r="A39" s="2">
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -4897,12 +5041,16 @@
       <c r="F39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="8"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -4915,7 +5063,7 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="8"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -4928,7 +5076,7 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="8">
+      <c r="A42" s="2">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4944,12 +5092,16 @@
       <c r="F42" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="8"/>
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -4962,7 +5114,7 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="8"/>
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -4975,7 +5127,7 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="8">
+      <c r="A45" s="2">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4991,12 +5143,16 @@
       <c r="F45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="8"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -5009,7 +5165,7 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="8"/>
+      <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -5022,7 +5178,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="8">
+      <c r="A48" s="2">
         <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -5038,12 +5194,16 @@
       <c r="F48" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="8"/>
+      <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -5056,7 +5216,7 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="8"/>
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -5069,7 +5229,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="8">
+      <c r="A51" s="2">
         <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -5085,12 +5245,16 @@
       <c r="F51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="G51" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="8"/>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5103,7 +5267,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="8"/>
+      <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5116,7 +5280,7 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="8">
+      <c r="A54" s="2">
         <v>17</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -5132,12 +5296,16 @@
       <c r="F54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="8"/>
+      <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -5150,7 +5318,7 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="8"/>
+      <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5163,7 +5331,7 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="8">
+      <c r="A57" s="2">
         <v>18</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -5179,12 +5347,16 @@
       <c r="F57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="8"/>
+      <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -5197,7 +5369,7 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8"/>
+      <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -5210,7 +5382,7 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="8">
+      <c r="A60" s="2">
         <v>19</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -5226,12 +5398,18 @@
       <c r="F60" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="G60" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="8"/>
+      <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -5244,7 +5422,7 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="8"/>
+      <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -5257,7 +5435,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="8">
+      <c r="A63" s="2">
         <v>20</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -5273,12 +5451,16 @@
       <c r="F63" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="8"/>
+      <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -5291,7 +5473,7 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="8"/>
+      <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -5304,7 +5486,7 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="8">
+      <c r="A66" s="2">
         <v>21</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -5320,12 +5502,16 @@
       <c r="F66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="G66" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="8"/>
+      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -5338,7 +5524,7 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="8"/>
+      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -5351,7 +5537,7 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="8">
+      <c r="A69" s="2">
         <v>22</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -5367,12 +5553,16 @@
       <c r="F69" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="G69" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="8"/>
+      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -5385,7 +5575,7 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="8"/>
+      <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -5398,7 +5588,7 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="8">
+      <c r="A72" s="2">
         <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -5414,12 +5604,16 @@
       <c r="F72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="G72" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="8"/>
+      <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -5432,7 +5626,7 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="8"/>
+      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -5445,7 +5639,7 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="8">
+      <c r="A75" s="2">
         <v>24</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5461,12 +5655,16 @@
       <c r="F75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="G75" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="8"/>
+      <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -5479,7 +5677,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="8"/>
+      <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -5492,7 +5690,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="8">
+      <c r="A78" s="2">
         <v>25</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -5508,12 +5706,16 @@
       <c r="F78" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="G78" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="8"/>
+      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -5526,7 +5728,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="8"/>
+      <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -5539,7 +5741,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="8">
+      <c r="A81" s="2">
         <v>26</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -5555,12 +5757,16 @@
       <c r="F81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="8"/>
+      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -5573,7 +5779,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="8"/>
+      <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -5586,7 +5792,7 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="8">
+      <c r="A84" s="2">
         <v>27</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -5602,12 +5808,18 @@
       <c r="F84" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
+      <c r="G84" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="8"/>
+      <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -5620,7 +5832,7 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="8"/>
+      <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -5633,7 +5845,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="8">
+      <c r="A87" s="2">
         <v>28</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -5649,12 +5861,16 @@
       <c r="F87" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+      <c r="G87" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="8"/>
+      <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -5667,7 +5883,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="8"/>
+      <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -5680,7 +5896,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="8">
+      <c r="A90" s="2">
         <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5696,12 +5912,16 @@
       <c r="F90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
+      <c r="G90" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="8"/>
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5714,7 +5934,7 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="8"/>
+      <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -5727,7 +5947,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="8">
+      <c r="A93" s="2">
         <v>30</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5743,12 +5963,16 @@
       <c r="F93" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
+      <c r="G93" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="8"/>
+      <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -5761,7 +5985,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="8"/>
+      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -5774,7 +5998,7 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="8">
+      <c r="A96" s="2">
         <v>31</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5790,12 +6014,16 @@
       <c r="F96" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
+      <c r="G96" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="8"/>
+      <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -5808,7 +6036,7 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="8"/>
+      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -5821,7 +6049,7 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="8">
+      <c r="A99" s="2">
         <v>32</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5837,12 +6065,16 @@
       <c r="F99" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
+      <c r="G99" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="8"/>
+      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5855,7 +6087,7 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="8"/>
+      <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5868,7 +6100,7 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="8">
+      <c r="A102" s="2">
         <v>33</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -5884,12 +6116,18 @@
       <c r="F102" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
+      <c r="G102" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="8"/>
+      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -5902,7 +6140,7 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="8"/>
+      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5915,7 +6153,7 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="8">
+      <c r="A105" s="2">
         <v>34</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -5931,12 +6169,16 @@
       <c r="F105" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="G105" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="8"/>
+      <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -5949,7 +6191,7 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="8"/>
+      <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -5978,8 +6220,12 @@
       <c r="F108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="2"/>
+      <c r="G108" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6012,8 +6258,12 @@
       <c r="F110" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G110" s="4"/>
-      <c r="H110" s="2"/>
+      <c r="G110" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6046,8 +6296,12 @@
       <c r="F112" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="2"/>
+      <c r="G112" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6080,8 +6334,12 @@
       <c r="F114" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="2"/>
+      <c r="G114" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6114,8 +6372,12 @@
       <c r="F116" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="2"/>
+      <c r="G116" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6148,8 +6410,12 @@
       <c r="F118" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G118" s="4"/>
-      <c r="H118" s="2"/>
+      <c r="G118" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6182,8 +6448,12 @@
       <c r="F120" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G120" s="4"/>
-      <c r="H120" s="2"/>
+      <c r="G120" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6216,8 +6486,12 @@
       <c r="F122" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G122" s="4"/>
-      <c r="H122" s="2"/>
+      <c r="G122" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6250,8 +6524,12 @@
       <c r="F124" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G124" s="4"/>
-      <c r="H124" s="2"/>
+      <c r="G124" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6284,8 +6562,12 @@
       <c r="F126" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G126" s="4"/>
-      <c r="H126" s="2"/>
+      <c r="G126" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6318,8 +6600,12 @@
       <c r="F128" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G128" s="4"/>
-      <c r="H128" s="2"/>
+      <c r="G128" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6365,8 +6651,12 @@
       <c r="F131" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="2"/>
+      <c r="G131" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6397,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A19" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6503,8 +6793,12 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6550,8 +6844,12 @@
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6597,8 +6895,12 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6644,8 +6946,12 @@
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6691,8 +6997,12 @@
       <c r="F20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6738,8 +7048,12 @@
       <c r="F23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="I23" s="2" t="s">
         <v>30</v>
       </c>
@@ -6787,8 +7101,12 @@
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6834,8 +7152,12 @@
       <c r="F29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6881,8 +7203,12 @@
       <c r="F32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6928,8 +7254,12 @@
       <c r="F35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6975,8 +7305,12 @@
       <c r="F38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7022,8 +7356,12 @@
       <c r="F41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7069,8 +7407,12 @@
       <c r="F44" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="I44" s="5" t="s">
         <v>109</v>
       </c>
@@ -7116,16 +7458,20 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45806</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7134,42 +7480,101 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="A50" s="2">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2">
+        <v>16</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7185,10 +7590,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7277,266 +7682,498 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G9" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G11" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G13" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="G15" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" t="s">
+      <c r="G17" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E20" t="s">
+      <c r="G19" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" t="s">
+      <c r="G21" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E24" t="s">
+      <c r="G23" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" t="s">
+      <c r="G25" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E28" t="s">
+      <c r="G27" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" t="s">
+      <c r="G29" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E32" t="s">
+      <c r="G31" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>52</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="G33" s="4">
+        <v>45805</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ketugotest.xlsx
+++ b/ketugotest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kudo1\OneDrive\デスクトップ\test-case\test-case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA620FE-FD79-442D-AEAF-141BD81A9673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4400,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D45" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4452,7 +4453,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>45791</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6689,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72C48DE-86F6-464D-98C0-F818F0ED9625}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -6741,7 +6742,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>45791</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7592,8 +7593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7644,7 +7645,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>45791</v>
+        <v>45797</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
